--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H2">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I2">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J2">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>7443.758449770832</v>
+        <v>4693.410006701594</v>
       </c>
       <c r="R2">
-        <v>66993.8260479375</v>
+        <v>42240.69006031435</v>
       </c>
       <c r="S2">
-        <v>0.2466857003107477</v>
+        <v>0.2033855585143369</v>
       </c>
       <c r="T2">
-        <v>0.2466857003107477</v>
+        <v>0.2033855585143369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H3">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I3">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J3">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>8184.148083979167</v>
+        <v>5437.489118099455</v>
       </c>
       <c r="R3">
-        <v>73657.33275581252</v>
+        <v>48937.40206289509</v>
       </c>
       <c r="S3">
-        <v>0.2712221675604507</v>
+        <v>0.2356296934683294</v>
       </c>
       <c r="T3">
-        <v>0.2712221675604506</v>
+        <v>0.2356296934683294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H4">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I4">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J4">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>4536.327723734375</v>
+        <v>4127.285538646294</v>
       </c>
       <c r="R4">
-        <v>40826.94951360938</v>
+        <v>37145.56984781665</v>
       </c>
       <c r="S4">
-        <v>0.1503336236552553</v>
+        <v>0.1788529604758848</v>
       </c>
       <c r="T4">
-        <v>0.1503336236552552</v>
+        <v>0.1788529604758848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H5">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I5">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J5">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>3301.316770364584</v>
+        <v>2118.33993667093</v>
       </c>
       <c r="R5">
-        <v>29711.85093328125</v>
+        <v>19065.05943003837</v>
       </c>
       <c r="S5">
-        <v>0.109405436103327</v>
+        <v>0.09179674277931346</v>
       </c>
       <c r="T5">
-        <v>0.109405436103327</v>
+        <v>0.09179674277931346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>1761.206177638447</v>
+        <v>1671.404246900901</v>
       </c>
       <c r="R6">
-        <v>15850.85559874602</v>
+        <v>15042.63822210811</v>
       </c>
       <c r="S6">
-        <v>0.05836626514066038</v>
+        <v>0.07242910501613622</v>
       </c>
       <c r="T6">
-        <v>0.05836626514066037</v>
+        <v>0.07242910501613622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>1936.3836510111</v>
@@ -883,10 +883,10 @@
         <v>17427.4528590999</v>
       </c>
       <c r="S7">
-        <v>0.0641716359072159</v>
+        <v>0.08391179756223736</v>
       </c>
       <c r="T7">
-        <v>0.06417163590721589</v>
+        <v>0.08391179756223736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>1073.303018192309</v>
+        <v>1469.797560327374</v>
       </c>
       <c r="R8">
-        <v>9659.727163730779</v>
+        <v>13228.17804294637</v>
       </c>
       <c r="S8">
-        <v>0.03556919645835099</v>
+        <v>0.06369262376041102</v>
       </c>
       <c r="T8">
-        <v>0.03556919645835097</v>
+        <v>0.06369262376041102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>781.0972816409046</v>
+        <v>754.3773847748326</v>
       </c>
       <c r="R9">
-        <v>7029.875534768141</v>
+        <v>6789.396462973494</v>
       </c>
       <c r="S9">
-        <v>0.02588551619892234</v>
+        <v>0.03269040324922313</v>
       </c>
       <c r="T9">
-        <v>0.02588551619892233</v>
+        <v>0.03269040324922313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H10">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>312.4696766459711</v>
+        <v>186.4069586800442</v>
       </c>
       <c r="R10">
-        <v>2812.22708981374</v>
+        <v>1677.662628120398</v>
       </c>
       <c r="S10">
-        <v>0.01035522599630532</v>
+        <v>0.008077811942269159</v>
       </c>
       <c r="T10">
-        <v>0.01035522599630532</v>
+        <v>0.008077811942269159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H11">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>343.5493135194956</v>
+        <v>215.9593574636529</v>
       </c>
       <c r="R11">
-        <v>3091.943821675461</v>
+        <v>1943.634217172876</v>
       </c>
       <c r="S11">
-        <v>0.01138520326374139</v>
+        <v>0.009358443961091376</v>
       </c>
       <c r="T11">
-        <v>0.01138520326374139</v>
+        <v>0.009358443961091376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H12">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>190.4232742854617</v>
+        <v>163.9223387184676</v>
       </c>
       <c r="R12">
-        <v>1713.809468569155</v>
+        <v>1475.301048466208</v>
       </c>
       <c r="S12">
-        <v>0.006310615677490302</v>
+        <v>0.007103457052681813</v>
       </c>
       <c r="T12">
-        <v>0.006310615677490301</v>
+        <v>0.007103457052681813</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H13">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>138.5807170802945</v>
+        <v>84.13356269353766</v>
       </c>
       <c r="R13">
-        <v>1247.22645372265</v>
+        <v>757.2020642418389</v>
       </c>
       <c r="S13">
-        <v>0.004592556498601927</v>
+        <v>0.003645867634362437</v>
       </c>
       <c r="T13">
-        <v>0.004592556498601927</v>
+        <v>0.003645867634362437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H14">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I14">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J14">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>54.72265470615465</v>
+        <v>62.33631519669733</v>
       </c>
       <c r="R14">
-        <v>492.5038923553919</v>
+        <v>561.026836770276</v>
       </c>
       <c r="S14">
-        <v>0.001813505434135439</v>
+        <v>0.002701299537841999</v>
       </c>
       <c r="T14">
-        <v>0.001813505434135439</v>
+        <v>0.002701299537841999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H15">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I15">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J15">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>60.16561562088533</v>
+        <v>72.21892718950133</v>
       </c>
       <c r="R15">
-        <v>541.490540587968</v>
+        <v>649.970344705512</v>
       </c>
       <c r="S15">
-        <v>0.00199388482635708</v>
+        <v>0.003129555444925959</v>
       </c>
       <c r="T15">
-        <v>0.001993884826357079</v>
+        <v>0.003129555444925959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H16">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I16">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J16">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>33.348730662736</v>
+        <v>54.81723776027733</v>
       </c>
       <c r="R16">
-        <v>300.138575964624</v>
+        <v>493.3551398424959</v>
       </c>
       <c r="S16">
-        <v>0.001105174896999083</v>
+        <v>0.002375465706632874</v>
       </c>
       <c r="T16">
-        <v>0.001105174896999083</v>
+        <v>0.002375465706632874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H17">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I17">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J17">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>24.26957012634666</v>
+        <v>28.13508851720199</v>
       </c>
       <c r="R17">
-        <v>218.42613113712</v>
+        <v>253.215796654818</v>
       </c>
       <c r="S17">
-        <v>0.0008042920714391192</v>
+        <v>0.0012192138943222</v>
       </c>
       <c r="T17">
-        <v>0.0008042920714391191</v>
+        <v>0.0012192138943222</v>
       </c>
     </row>
   </sheetData>
